--- a/Table/Tower_Data.xlsx
+++ b/Table/Tower_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="36">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -556,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="H2" s="2">
         <v>0.5</v>

--- a/Table/Tower_Data.xlsx
+++ b/Table/Tower_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="33">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,17 +156,6 @@
   <si>
     <t>룰루</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test3</t>
   </si>
 </sst>
 </file>
@@ -554,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
         <v>0.5</v>
@@ -652,10 +641,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -696,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -740,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -784,10 +773,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -828,10 +817,10 @@
         <v>1</v>
       </c>
       <c r="M6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -872,10 +861,10 @@
         <v>1</v>
       </c>
       <c r="M7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -916,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="M8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -960,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1004,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -1048,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -1089,13 +1078,13 @@
         <v>100</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1133,13 +1122,13 @@
         <v>200</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1177,13 +1166,13 @@
         <v>300</v>
       </c>
       <c r="L14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1221,13 +1210,13 @@
         <v>400</v>
       </c>
       <c r="L15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1265,13 +1254,13 @@
         <v>500</v>
       </c>
       <c r="L16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1309,13 +1298,13 @@
         <v>600</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1353,13 +1342,13 @@
         <v>700</v>
       </c>
       <c r="L18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1397,13 +1386,13 @@
         <v>800</v>
       </c>
       <c r="L19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1441,13 +1430,13 @@
         <v>900</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
@@ -1485,13 +1474,13 @@
         <v>1000</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
@@ -1529,13 +1518,13 @@
         <v>100</v>
       </c>
       <c r="L22" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
@@ -1573,13 +1562,13 @@
         <v>200</v>
       </c>
       <c r="L23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
@@ -1617,13 +1606,13 @@
         <v>300</v>
       </c>
       <c r="L24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -1661,13 +1650,13 @@
         <v>400</v>
       </c>
       <c r="L25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
@@ -1705,13 +1694,13 @@
         <v>500</v>
       </c>
       <c r="L26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -1749,13 +1738,13 @@
         <v>600</v>
       </c>
       <c r="L27" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -1793,13 +1782,13 @@
         <v>700</v>
       </c>
       <c r="L28" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -1837,13 +1826,13 @@
         <v>800</v>
       </c>
       <c r="L29" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -1881,13 +1870,13 @@
         <v>900</v>
       </c>
       <c r="L30" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -1925,153 +1914,153 @@
         <v>1000</v>
       </c>
       <c r="L31" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="A32" s="3">
+        <v>101</v>
+      </c>
+      <c r="B32" s="3">
+        <v>101</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G32" s="2">
-        <v>132</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I32" s="2">
-        <v>500</v>
-      </c>
-      <c r="J32" s="2">
-        <v>250</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1</v>
-      </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
-      <c r="N32" s="2">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>250</v>
+      </c>
+      <c r="K32" s="3">
+        <v>100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1</v>
+      </c>
+      <c r="N32" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <v>41</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="2">
+      <c r="A33" s="3">
+        <v>102</v>
+      </c>
+      <c r="B33" s="3">
+        <v>102</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="2">
-        <v>132</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="2">
-        <v>500</v>
-      </c>
-      <c r="J33" s="2">
-        <v>250</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1</v>
-      </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
-      <c r="N33" s="2">
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3">
+        <v>36</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>250</v>
+      </c>
+      <c r="K33" s="3">
+        <v>200</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="2">
+      <c r="A34" s="3">
+        <v>103</v>
+      </c>
+      <c r="B34" s="3">
+        <v>103</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="2">
-        <v>132</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I34" s="2">
-        <v>500</v>
-      </c>
-      <c r="J34" s="2">
-        <v>250</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L34" s="2">
-        <v>1</v>
-      </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
-      <c r="N34" s="2">
+      <c r="F34" s="3">
+        <v>3</v>
+      </c>
+      <c r="G34" s="3">
+        <v>48</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I34" s="3">
+        <v>500</v>
+      </c>
+      <c r="J34" s="3">
+        <v>250</v>
+      </c>
+      <c r="K34" s="3">
+        <v>300</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>21</v>
@@ -2083,10 +2072,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G35" s="3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H35" s="3">
         <v>0.5</v>
@@ -2098,7 +2087,7 @@
         <v>250</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L35" s="3">
         <v>1</v>
@@ -2112,10 +2101,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>21</v>
@@ -2127,10 +2116,10 @@
         <v>10</v>
       </c>
       <c r="F36" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G36" s="3">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H36" s="3">
         <v>0.5</v>
@@ -2142,7 +2131,7 @@
         <v>250</v>
       </c>
       <c r="K36" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L36" s="3">
         <v>1</v>
@@ -2156,10 +2145,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="3">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>21</v>
@@ -2171,10 +2160,10 @@
         <v>10</v>
       </c>
       <c r="F37" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H37" s="3">
         <v>0.5</v>
@@ -2186,7 +2175,7 @@
         <v>250</v>
       </c>
       <c r="K37" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L37" s="3">
         <v>1</v>
@@ -2200,10 +2189,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="3">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>21</v>
@@ -2215,10 +2204,10 @@
         <v>10</v>
       </c>
       <c r="F38" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G38" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H38" s="3">
         <v>0.5</v>
@@ -2230,7 +2219,7 @@
         <v>250</v>
       </c>
       <c r="K38" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L38" s="3">
         <v>1</v>
@@ -2244,10 +2233,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>21</v>
@@ -2259,10 +2248,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G39" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H39" s="3">
         <v>0.5</v>
@@ -2274,7 +2263,7 @@
         <v>250</v>
       </c>
       <c r="K39" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L39" s="3">
         <v>1</v>
@@ -2288,10 +2277,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="3">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>21</v>
@@ -2303,10 +2292,10 @@
         <v>10</v>
       </c>
       <c r="F40" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G40" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H40" s="3">
         <v>0.5</v>
@@ -2318,7 +2307,7 @@
         <v>250</v>
       </c>
       <c r="K40" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L40" s="3">
         <v>1</v>
@@ -2332,10 +2321,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="3">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>21</v>
@@ -2347,10 +2336,10 @@
         <v>10</v>
       </c>
       <c r="F41" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G41" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H41" s="3">
         <v>0.5</v>
@@ -2362,7 +2351,7 @@
         <v>250</v>
       </c>
       <c r="K41" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L41" s="3">
         <v>1</v>
@@ -2376,25 +2365,25 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="3">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F42" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G42" s="3">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H42" s="3">
         <v>0.5</v>
@@ -2406,7 +2395,7 @@
         <v>250</v>
       </c>
       <c r="K42" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L42" s="3">
         <v>1</v>
@@ -2420,25 +2409,25 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F43" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G43" s="3">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H43" s="3">
         <v>0.5</v>
@@ -2450,7 +2439,7 @@
         <v>250</v>
       </c>
       <c r="K43" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>1</v>
@@ -2464,25 +2453,25 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="3">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F44" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G44" s="3">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="H44" s="3">
         <v>0.5</v>
@@ -2494,7 +2483,7 @@
         <v>250</v>
       </c>
       <c r="K44" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>1</v>
@@ -2508,10 +2497,10 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="3">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>22</v>
@@ -2523,10 +2512,10 @@
         <v>19</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H45" s="3">
         <v>0.5</v>
@@ -2538,7 +2527,7 @@
         <v>250</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>1</v>
@@ -2552,10 +2541,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>22</v>
@@ -2567,10 +2556,10 @@
         <v>19</v>
       </c>
       <c r="F46" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H46" s="3">
         <v>0.5</v>
@@ -2582,7 +2571,7 @@
         <v>250</v>
       </c>
       <c r="K46" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L46" s="3">
         <v>1</v>
@@ -2596,10 +2585,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="3">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>22</v>
@@ -2611,10 +2600,10 @@
         <v>19</v>
       </c>
       <c r="F47" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G47" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H47" s="3">
         <v>0.5</v>
@@ -2626,7 +2615,7 @@
         <v>250</v>
       </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L47" s="3">
         <v>1</v>
@@ -2640,10 +2629,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="3">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>22</v>
@@ -2655,10 +2644,10 @@
         <v>19</v>
       </c>
       <c r="F48" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G48" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H48" s="3">
         <v>0.5</v>
@@ -2670,7 +2659,7 @@
         <v>250</v>
       </c>
       <c r="K48" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>1</v>
@@ -2684,10 +2673,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="3">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>22</v>
@@ -2699,10 +2688,10 @@
         <v>19</v>
       </c>
       <c r="F49" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G49" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H49" s="3">
         <v>0.5</v>
@@ -2714,7 +2703,7 @@
         <v>250</v>
       </c>
       <c r="K49" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L49" s="3">
         <v>1</v>
@@ -2728,10 +2717,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="3">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>22</v>
@@ -2743,10 +2732,10 @@
         <v>19</v>
       </c>
       <c r="F50" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G50" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H50" s="3">
         <v>0.5</v>
@@ -2758,7 +2747,7 @@
         <v>250</v>
       </c>
       <c r="K50" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L50" s="3">
         <v>1</v>
@@ -2772,10 +2761,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B51" s="3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>22</v>
@@ -2787,10 +2776,10 @@
         <v>19</v>
       </c>
       <c r="F51" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G51" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H51" s="3">
         <v>0.5</v>
@@ -2802,7 +2791,7 @@
         <v>250</v>
       </c>
       <c r="K51" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L51" s="3">
         <v>1</v>
@@ -2816,25 +2805,25 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B52" s="3">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F52" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H52" s="3">
         <v>0.5</v>
@@ -2846,7 +2835,7 @@
         <v>250</v>
       </c>
       <c r="K52" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>1</v>
@@ -2860,25 +2849,25 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B53" s="3">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F53" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H53" s="3">
         <v>0.5</v>
@@ -2890,7 +2879,7 @@
         <v>250</v>
       </c>
       <c r="K53" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L53" s="3">
         <v>1</v>
@@ -2904,25 +2893,25 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B54" s="3">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F54" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G54" s="3">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="H54" s="3">
         <v>0.5</v>
@@ -2934,7 +2923,7 @@
         <v>250</v>
       </c>
       <c r="K54" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>1</v>
@@ -2948,10 +2937,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B55" s="3">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>23</v>
@@ -2963,10 +2952,10 @@
         <v>20</v>
       </c>
       <c r="F55" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H55" s="3">
         <v>0.5</v>
@@ -2978,7 +2967,7 @@
         <v>250</v>
       </c>
       <c r="K55" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L55" s="3">
         <v>1</v>
@@ -2992,10 +2981,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B56" s="3">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>23</v>
@@ -3007,10 +2996,10 @@
         <v>20</v>
       </c>
       <c r="F56" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G56" s="3">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H56" s="3">
         <v>0.5</v>
@@ -3022,7 +3011,7 @@
         <v>250</v>
       </c>
       <c r="K56" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L56" s="3">
         <v>1</v>
@@ -3036,10 +3025,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B57" s="3">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
@@ -3051,10 +3040,10 @@
         <v>20</v>
       </c>
       <c r="F57" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G57" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H57" s="3">
         <v>0.5</v>
@@ -3066,7 +3055,7 @@
         <v>250</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L57" s="3">
         <v>1</v>
@@ -3080,10 +3069,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B58" s="3">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>23</v>
@@ -3095,10 +3084,10 @@
         <v>20</v>
       </c>
       <c r="F58" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G58" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H58" s="3">
         <v>0.5</v>
@@ -3110,7 +3099,7 @@
         <v>250</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>1</v>
@@ -3124,10 +3113,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B59" s="3">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>23</v>
@@ -3139,10 +3128,10 @@
         <v>20</v>
       </c>
       <c r="F59" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G59" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H59" s="3">
         <v>0.5</v>
@@ -3154,7 +3143,7 @@
         <v>250</v>
       </c>
       <c r="K59" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L59" s="3">
         <v>1</v>
@@ -3168,10 +3157,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B60" s="3">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>23</v>
@@ -3183,10 +3172,10 @@
         <v>20</v>
       </c>
       <c r="F60" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G60" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H60" s="3">
         <v>0.5</v>
@@ -3198,7 +3187,7 @@
         <v>250</v>
       </c>
       <c r="K60" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L60" s="3">
         <v>1</v>
@@ -3212,10 +3201,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B61" s="3">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>23</v>
@@ -3227,10 +3216,10 @@
         <v>20</v>
       </c>
       <c r="F61" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G61" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H61" s="3">
         <v>0.5</v>
@@ -3242,7 +3231,7 @@
         <v>250</v>
       </c>
       <c r="K61" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L61" s="3">
         <v>1</v>
@@ -3255,143 +3244,143 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>128</v>
-      </c>
-      <c r="B62" s="3">
-        <v>128</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="A62" s="2">
+        <v>201</v>
+      </c>
+      <c r="B62" s="2">
+        <v>201</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
         <v>24</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="3">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
-        <v>108</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="3">
-        <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>250</v>
-      </c>
-      <c r="K62" s="3">
-        <v>800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="H62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="2">
+        <v>500</v>
+      </c>
+      <c r="J62" s="2">
+        <v>250</v>
+      </c>
+      <c r="K62" s="2">
+        <v>100</v>
+      </c>
+      <c r="L62" s="2">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1</v>
+      </c>
+      <c r="N62" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>129</v>
-      </c>
-      <c r="B63" s="3">
-        <v>129</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="3">
-        <v>9</v>
-      </c>
-      <c r="G63" s="3">
-        <v>120</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I63" s="3">
-        <v>500</v>
-      </c>
-      <c r="J63" s="3">
-        <v>250</v>
-      </c>
-      <c r="K63" s="3">
-        <v>900</v>
-      </c>
-      <c r="L63" s="3">
-        <v>1</v>
-      </c>
-      <c r="M63" s="3">
-        <v>1</v>
-      </c>
-      <c r="N63" s="3">
+      <c r="A63" s="2">
+        <v>202</v>
+      </c>
+      <c r="B63" s="2">
+        <v>202</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2</v>
+      </c>
+      <c r="G63" s="2">
+        <v>36</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="2">
+        <v>500</v>
+      </c>
+      <c r="J63" s="2">
+        <v>250</v>
+      </c>
+      <c r="K63" s="2">
+        <v>200</v>
+      </c>
+      <c r="L63" s="2">
+        <v>1</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1</v>
+      </c>
+      <c r="N63" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>130</v>
-      </c>
-      <c r="B64" s="3">
-        <v>130</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="3">
+      <c r="A64" s="2">
+        <v>203</v>
+      </c>
+      <c r="B64" s="2">
+        <v>203</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G64" s="3">
-        <v>132</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="3">
-        <v>500</v>
-      </c>
-      <c r="J64" s="3">
-        <v>250</v>
-      </c>
-      <c r="K64" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L64" s="3">
-        <v>1</v>
-      </c>
-      <c r="M64" s="3">
-        <v>1</v>
-      </c>
-      <c r="N64" s="3">
+      <c r="F64" s="2">
+        <v>3</v>
+      </c>
+      <c r="G64" s="2">
+        <v>48</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="2">
+        <v>500</v>
+      </c>
+      <c r="J64" s="2">
+        <v>250</v>
+      </c>
+      <c r="K64" s="2">
+        <v>300</v>
+      </c>
+      <c r="L64" s="2">
+        <v>1</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B65" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>25</v>
@@ -3403,10 +3392,10 @@
         <v>10</v>
       </c>
       <c r="F65" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G65" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H65" s="2">
         <v>0.5</v>
@@ -3418,7 +3407,7 @@
         <v>250</v>
       </c>
       <c r="K65" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L65" s="2">
         <v>1</v>
@@ -3432,10 +3421,10 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B66" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>25</v>
@@ -3447,10 +3436,10 @@
         <v>10</v>
       </c>
       <c r="F66" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G66" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H66" s="2">
         <v>0.5</v>
@@ -3462,7 +3451,7 @@
         <v>250</v>
       </c>
       <c r="K66" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L66" s="2">
         <v>1</v>
@@ -3476,10 +3465,10 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B67" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>25</v>
@@ -3491,10 +3480,10 @@
         <v>10</v>
       </c>
       <c r="F67" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G67" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H67" s="2">
         <v>0.5</v>
@@ -3506,7 +3495,7 @@
         <v>250</v>
       </c>
       <c r="K67" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L67" s="2">
         <v>1</v>
@@ -3520,10 +3509,10 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B68" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>25</v>
@@ -3535,10 +3524,10 @@
         <v>10</v>
       </c>
       <c r="F68" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G68" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H68" s="2">
         <v>0.5</v>
@@ -3550,7 +3539,7 @@
         <v>250</v>
       </c>
       <c r="K68" s="2">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L68" s="2">
         <v>1</v>
@@ -3564,10 +3553,10 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B69" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>25</v>
@@ -3579,10 +3568,10 @@
         <v>10</v>
       </c>
       <c r="F69" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H69" s="2">
         <v>0.5</v>
@@ -3594,7 +3583,7 @@
         <v>250</v>
       </c>
       <c r="K69" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L69" s="2">
         <v>1</v>
@@ -3608,10 +3597,10 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B70" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>25</v>
@@ -3623,10 +3612,10 @@
         <v>10</v>
       </c>
       <c r="F70" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G70" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H70" s="2">
         <v>0.5</v>
@@ -3638,7 +3627,7 @@
         <v>250</v>
       </c>
       <c r="K70" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L70" s="2">
         <v>1</v>
@@ -3652,10 +3641,10 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B71" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>25</v>
@@ -3667,10 +3656,10 @@
         <v>10</v>
       </c>
       <c r="F71" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H71" s="2">
         <v>0.5</v>
@@ -3682,7 +3671,7 @@
         <v>250</v>
       </c>
       <c r="K71" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L71" s="2">
         <v>1</v>
@@ -3696,25 +3685,25 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B72" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F72" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G72" s="2">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H72" s="2">
         <v>0.5</v>
@@ -3726,7 +3715,7 @@
         <v>250</v>
       </c>
       <c r="K72" s="2">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L72" s="2">
         <v>1</v>
@@ -3740,25 +3729,25 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B73" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F73" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G73" s="2">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H73" s="2">
         <v>0.5</v>
@@ -3770,7 +3759,7 @@
         <v>250</v>
       </c>
       <c r="K73" s="2">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L73" s="2">
         <v>1</v>
@@ -3784,25 +3773,25 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B74" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F74" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G74" s="2">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="H74" s="2">
         <v>0.5</v>
@@ -3814,7 +3803,7 @@
         <v>250</v>
       </c>
       <c r="K74" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L74" s="2">
         <v>1</v>
@@ -3828,10 +3817,10 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B75" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>26</v>
@@ -3843,10 +3832,10 @@
         <v>19</v>
       </c>
       <c r="F75" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G75" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H75" s="2">
         <v>0.5</v>
@@ -3858,7 +3847,7 @@
         <v>250</v>
       </c>
       <c r="K75" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L75" s="2">
         <v>1</v>
@@ -3872,10 +3861,10 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B76" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>26</v>
@@ -3887,10 +3876,10 @@
         <v>19</v>
       </c>
       <c r="F76" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H76" s="2">
         <v>0.5</v>
@@ -3902,7 +3891,7 @@
         <v>250</v>
       </c>
       <c r="K76" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L76" s="2">
         <v>1</v>
@@ -3916,10 +3905,10 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B77" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>26</v>
@@ -3931,10 +3920,10 @@
         <v>19</v>
       </c>
       <c r="F77" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G77" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H77" s="2">
         <v>0.5</v>
@@ -3946,7 +3935,7 @@
         <v>250</v>
       </c>
       <c r="K77" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L77" s="2">
         <v>1</v>
@@ -3960,10 +3949,10 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B78" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>26</v>
@@ -3975,10 +3964,10 @@
         <v>19</v>
       </c>
       <c r="F78" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G78" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H78" s="2">
         <v>0.5</v>
@@ -3990,7 +3979,7 @@
         <v>250</v>
       </c>
       <c r="K78" s="2">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L78" s="2">
         <v>1</v>
@@ -4004,10 +3993,10 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B79" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>26</v>
@@ -4019,10 +4008,10 @@
         <v>19</v>
       </c>
       <c r="F79" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G79" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H79" s="2">
         <v>0.5</v>
@@ -4034,7 +4023,7 @@
         <v>250</v>
       </c>
       <c r="K79" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L79" s="2">
         <v>1</v>
@@ -4048,10 +4037,10 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B80" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>26</v>
@@ -4063,10 +4052,10 @@
         <v>19</v>
       </c>
       <c r="F80" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G80" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H80" s="2">
         <v>0.5</v>
@@ -4078,7 +4067,7 @@
         <v>250</v>
       </c>
       <c r="K80" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L80" s="2">
         <v>1</v>
@@ -4092,10 +4081,10 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B81" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>26</v>
@@ -4107,10 +4096,10 @@
         <v>19</v>
       </c>
       <c r="F81" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H81" s="2">
         <v>0.5</v>
@@ -4122,7 +4111,7 @@
         <v>250</v>
       </c>
       <c r="K81" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L81" s="2">
         <v>1</v>
@@ -4136,25 +4125,25 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B82" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F82" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G82" s="2">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H82" s="2">
         <v>0.5</v>
@@ -4166,7 +4155,7 @@
         <v>250</v>
       </c>
       <c r="K82" s="2">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L82" s="2">
         <v>1</v>
@@ -4180,25 +4169,25 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B83" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F83" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G83" s="2">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H83" s="2">
         <v>0.5</v>
@@ -4210,7 +4199,7 @@
         <v>250</v>
       </c>
       <c r="K83" s="2">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L83" s="2">
         <v>1</v>
@@ -4224,25 +4213,25 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B84" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F84" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G84" s="2">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="H84" s="2">
         <v>0.5</v>
@@ -4254,7 +4243,7 @@
         <v>250</v>
       </c>
       <c r="K84" s="2">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L84" s="2">
         <v>1</v>
@@ -4268,10 +4257,10 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B85" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>27</v>
@@ -4283,10 +4272,10 @@
         <v>20</v>
       </c>
       <c r="F85" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G85" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H85" s="2">
         <v>0.5</v>
@@ -4298,7 +4287,7 @@
         <v>250</v>
       </c>
       <c r="K85" s="2">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L85" s="2">
         <v>1</v>
@@ -4312,10 +4301,10 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B86" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>27</v>
@@ -4327,10 +4316,10 @@
         <v>20</v>
       </c>
       <c r="F86" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H86" s="2">
         <v>0.5</v>
@@ -4342,7 +4331,7 @@
         <v>250</v>
       </c>
       <c r="K86" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L86" s="2">
         <v>1</v>
@@ -4356,10 +4345,10 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B87" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>27</v>
@@ -4371,10 +4360,10 @@
         <v>20</v>
       </c>
       <c r="F87" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G87" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H87" s="2">
         <v>0.5</v>
@@ -4386,7 +4375,7 @@
         <v>250</v>
       </c>
       <c r="K87" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L87" s="2">
         <v>1</v>
@@ -4400,10 +4389,10 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B88" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>27</v>
@@ -4415,10 +4404,10 @@
         <v>20</v>
       </c>
       <c r="F88" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G88" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H88" s="2">
         <v>0.5</v>
@@ -4430,7 +4419,7 @@
         <v>250</v>
       </c>
       <c r="K88" s="2">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L88" s="2">
         <v>1</v>
@@ -4444,10 +4433,10 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B89" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>27</v>
@@ -4459,10 +4448,10 @@
         <v>20</v>
       </c>
       <c r="F89" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G89" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H89" s="2">
         <v>0.5</v>
@@ -4474,7 +4463,7 @@
         <v>250</v>
       </c>
       <c r="K89" s="2">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L89" s="2">
         <v>1</v>
@@ -4488,10 +4477,10 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B90" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>27</v>
@@ -4503,10 +4492,10 @@
         <v>20</v>
       </c>
       <c r="F90" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G90" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H90" s="2">
         <v>0.5</v>
@@ -4518,7 +4507,7 @@
         <v>250</v>
       </c>
       <c r="K90" s="2">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L90" s="2">
         <v>1</v>
@@ -4532,10 +4521,10 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B91" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>27</v>
@@ -4547,10 +4536,10 @@
         <v>20</v>
       </c>
       <c r="F91" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H91" s="2">
         <v>0.5</v>
@@ -4562,7 +4551,7 @@
         <v>250</v>
       </c>
       <c r="K91" s="2">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L91" s="2">
         <v>1</v>
@@ -4575,143 +4564,143 @@
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>228</v>
-      </c>
-      <c r="B92" s="2">
-        <v>228</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="2">
-        <v>8</v>
-      </c>
-      <c r="G92" s="2">
-        <v>108</v>
-      </c>
-      <c r="H92" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I92" s="2">
-        <v>500</v>
-      </c>
-      <c r="J92" s="2">
-        <v>250</v>
-      </c>
-      <c r="K92" s="2">
-        <v>800</v>
-      </c>
-      <c r="L92" s="2">
-        <v>1</v>
-      </c>
-      <c r="M92" s="2">
-        <v>1</v>
-      </c>
-      <c r="N92" s="2">
+      <c r="A92" s="3">
+        <v>301</v>
+      </c>
+      <c r="B92" s="3">
+        <v>301</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="3">
+        <v>1</v>
+      </c>
+      <c r="G92" s="3">
+        <v>24</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I92" s="3">
+        <v>500</v>
+      </c>
+      <c r="J92" s="3">
+        <v>250</v>
+      </c>
+      <c r="K92" s="3">
+        <v>100</v>
+      </c>
+      <c r="L92" s="3">
+        <v>1</v>
+      </c>
+      <c r="M92" s="3">
+        <v>1</v>
+      </c>
+      <c r="N92" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>229</v>
-      </c>
-      <c r="B93" s="2">
-        <v>229</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F93" s="2">
-        <v>9</v>
-      </c>
-      <c r="G93" s="2">
-        <v>120</v>
-      </c>
-      <c r="H93" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I93" s="2">
-        <v>500</v>
-      </c>
-      <c r="J93" s="2">
-        <v>250</v>
-      </c>
-      <c r="K93" s="2">
-        <v>900</v>
-      </c>
-      <c r="L93" s="2">
-        <v>1</v>
-      </c>
-      <c r="M93" s="2">
-        <v>1</v>
-      </c>
-      <c r="N93" s="2">
+      <c r="A93" s="3">
+        <v>302</v>
+      </c>
+      <c r="B93" s="3">
+        <v>302</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3">
+        <v>36</v>
+      </c>
+      <c r="H93" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I93" s="3">
+        <v>500</v>
+      </c>
+      <c r="J93" s="3">
+        <v>250</v>
+      </c>
+      <c r="K93" s="3">
+        <v>200</v>
+      </c>
+      <c r="L93" s="3">
+        <v>1</v>
+      </c>
+      <c r="M93" s="3">
+        <v>1</v>
+      </c>
+      <c r="N93" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>230</v>
-      </c>
-      <c r="B94" s="2">
-        <v>230</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F94" s="2">
+      <c r="A94" s="3">
+        <v>303</v>
+      </c>
+      <c r="B94" s="3">
+        <v>303</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G94" s="2">
-        <v>132</v>
-      </c>
-      <c r="H94" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="I94" s="2">
-        <v>500</v>
-      </c>
-      <c r="J94" s="2">
-        <v>250</v>
-      </c>
-      <c r="K94" s="2">
-        <v>1000</v>
-      </c>
-      <c r="L94" s="2">
-        <v>1</v>
-      </c>
-      <c r="M94" s="2">
-        <v>1</v>
-      </c>
-      <c r="N94" s="2">
+      <c r="F94" s="3">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3">
+        <v>48</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I94" s="3">
+        <v>500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>250</v>
+      </c>
+      <c r="K94" s="3">
+        <v>300</v>
+      </c>
+      <c r="L94" s="3">
+        <v>1</v>
+      </c>
+      <c r="M94" s="3">
+        <v>1</v>
+      </c>
+      <c r="N94" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B95" s="3">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>29</v>
@@ -4723,10 +4712,10 @@
         <v>10</v>
       </c>
       <c r="F95" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G95" s="3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H95" s="3">
         <v>0.5</v>
@@ -4738,7 +4727,7 @@
         <v>250</v>
       </c>
       <c r="K95" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L95" s="3">
         <v>1</v>
@@ -4752,10 +4741,10 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B96" s="3">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>29</v>
@@ -4767,10 +4756,10 @@
         <v>10</v>
       </c>
       <c r="F96" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G96" s="3">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H96" s="3">
         <v>0.5</v>
@@ -4782,7 +4771,7 @@
         <v>250</v>
       </c>
       <c r="K96" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L96" s="3">
         <v>1</v>
@@ -4796,10 +4785,10 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B97" s="3">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>29</v>
@@ -4811,10 +4800,10 @@
         <v>10</v>
       </c>
       <c r="F97" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G97" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H97" s="3">
         <v>0.5</v>
@@ -4826,7 +4815,7 @@
         <v>250</v>
       </c>
       <c r="K97" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L97" s="3">
         <v>1</v>
@@ -4840,10 +4829,10 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B98" s="3">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>29</v>
@@ -4855,10 +4844,10 @@
         <v>10</v>
       </c>
       <c r="F98" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G98" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H98" s="3">
         <v>0.5</v>
@@ -4870,7 +4859,7 @@
         <v>250</v>
       </c>
       <c r="K98" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L98" s="3">
         <v>1</v>
@@ -4884,10 +4873,10 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B99" s="3">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>29</v>
@@ -4899,10 +4888,10 @@
         <v>10</v>
       </c>
       <c r="F99" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G99" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H99" s="3">
         <v>0.5</v>
@@ -4914,7 +4903,7 @@
         <v>250</v>
       </c>
       <c r="K99" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L99" s="3">
         <v>1</v>
@@ -4928,10 +4917,10 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B100" s="3">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>29</v>
@@ -4943,10 +4932,10 @@
         <v>10</v>
       </c>
       <c r="F100" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G100" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H100" s="3">
         <v>0.5</v>
@@ -4958,7 +4947,7 @@
         <v>250</v>
       </c>
       <c r="K100" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L100" s="3">
         <v>1</v>
@@ -4972,10 +4961,10 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B101" s="3">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>29</v>
@@ -4987,10 +4976,10 @@
         <v>10</v>
       </c>
       <c r="F101" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G101" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H101" s="3">
         <v>0.5</v>
@@ -5002,7 +4991,7 @@
         <v>250</v>
       </c>
       <c r="K101" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L101" s="3">
         <v>1</v>
@@ -5016,25 +5005,25 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B102" s="3">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F102" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G102" s="3">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H102" s="3">
         <v>0.5</v>
@@ -5046,7 +5035,7 @@
         <v>250</v>
       </c>
       <c r="K102" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>1</v>
@@ -5060,25 +5049,25 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B103" s="3">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F103" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G103" s="3">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H103" s="3">
         <v>0.5</v>
@@ -5090,7 +5079,7 @@
         <v>250</v>
       </c>
       <c r="K103" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L103" s="3">
         <v>1</v>
@@ -5104,25 +5093,25 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B104" s="3">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F104" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G104" s="3">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="H104" s="3">
         <v>0.5</v>
@@ -5134,7 +5123,7 @@
         <v>250</v>
       </c>
       <c r="K104" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L104" s="3">
         <v>1</v>
@@ -5148,10 +5137,10 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B105" s="3">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>31</v>
@@ -5163,10 +5152,10 @@
         <v>19</v>
       </c>
       <c r="F105" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G105" s="3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H105" s="3">
         <v>0.5</v>
@@ -5178,7 +5167,7 @@
         <v>250</v>
       </c>
       <c r="K105" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L105" s="3">
         <v>1</v>
@@ -5192,10 +5181,10 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B106" s="3">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>31</v>
@@ -5207,10 +5196,10 @@
         <v>19</v>
       </c>
       <c r="F106" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G106" s="3">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H106" s="3">
         <v>0.5</v>
@@ -5222,7 +5211,7 @@
         <v>250</v>
       </c>
       <c r="K106" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L106" s="3">
         <v>1</v>
@@ -5236,10 +5225,10 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B107" s="3">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>31</v>
@@ -5251,10 +5240,10 @@
         <v>19</v>
       </c>
       <c r="F107" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G107" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H107" s="3">
         <v>0.5</v>
@@ -5266,7 +5255,7 @@
         <v>250</v>
       </c>
       <c r="K107" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L107" s="3">
         <v>1</v>
@@ -5280,10 +5269,10 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B108" s="3">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>31</v>
@@ -5295,10 +5284,10 @@
         <v>19</v>
       </c>
       <c r="F108" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G108" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H108" s="3">
         <v>0.5</v>
@@ -5310,7 +5299,7 @@
         <v>250</v>
       </c>
       <c r="K108" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L108" s="3">
         <v>1</v>
@@ -5324,10 +5313,10 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B109" s="3">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>31</v>
@@ -5339,10 +5328,10 @@
         <v>19</v>
       </c>
       <c r="F109" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G109" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H109" s="3">
         <v>0.5</v>
@@ -5354,7 +5343,7 @@
         <v>250</v>
       </c>
       <c r="K109" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L109" s="3">
         <v>1</v>
@@ -5368,10 +5357,10 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B110" s="3">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>31</v>
@@ -5383,10 +5372,10 @@
         <v>19</v>
       </c>
       <c r="F110" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G110" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H110" s="3">
         <v>0.5</v>
@@ -5398,7 +5387,7 @@
         <v>250</v>
       </c>
       <c r="K110" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L110" s="3">
         <v>1</v>
@@ -5412,10 +5401,10 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B111" s="3">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>31</v>
@@ -5427,10 +5416,10 @@
         <v>19</v>
       </c>
       <c r="F111" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G111" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H111" s="3">
         <v>0.5</v>
@@ -5442,7 +5431,7 @@
         <v>250</v>
       </c>
       <c r="K111" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L111" s="3">
         <v>1</v>
@@ -5456,25 +5445,25 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B112" s="3">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F112" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="H112" s="3">
         <v>0.5</v>
@@ -5486,7 +5475,7 @@
         <v>250</v>
       </c>
       <c r="K112" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="L112" s="3">
         <v>1</v>
@@ -5500,25 +5489,25 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B113" s="3">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F113" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G113" s="3">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="H113" s="3">
         <v>0.5</v>
@@ -5530,7 +5519,7 @@
         <v>250</v>
       </c>
       <c r="K113" s="3">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="L113" s="3">
         <v>1</v>
@@ -5544,25 +5533,25 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B114" s="3">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F114" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G114" s="3">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="H114" s="3">
         <v>0.5</v>
@@ -5574,7 +5563,7 @@
         <v>250</v>
       </c>
       <c r="K114" s="3">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="L114" s="3">
         <v>1</v>
@@ -5588,10 +5577,10 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B115" s="3">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>32</v>
@@ -5603,10 +5592,10 @@
         <v>20</v>
       </c>
       <c r="F115" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G115" s="3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H115" s="3">
         <v>0.5</v>
@@ -5618,7 +5607,7 @@
         <v>250</v>
       </c>
       <c r="K115" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L115" s="3">
         <v>1</v>
@@ -5632,10 +5621,10 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B116" s="3">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>32</v>
@@ -5647,10 +5636,10 @@
         <v>20</v>
       </c>
       <c r="F116" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G116" s="3">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="H116" s="3">
         <v>0.5</v>
@@ -5662,7 +5651,7 @@
         <v>250</v>
       </c>
       <c r="K116" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L116" s="3">
         <v>1</v>
@@ -5676,10 +5665,10 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B117" s="3">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>32</v>
@@ -5691,10 +5680,10 @@
         <v>20</v>
       </c>
       <c r="F117" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G117" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="H117" s="3">
         <v>0.5</v>
@@ -5706,7 +5695,7 @@
         <v>250</v>
       </c>
       <c r="K117" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="L117" s="3">
         <v>1</v>
@@ -5720,10 +5709,10 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B118" s="3">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>32</v>
@@ -5735,10 +5724,10 @@
         <v>20</v>
       </c>
       <c r="F118" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G118" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H118" s="3">
         <v>0.5</v>
@@ -5750,7 +5739,7 @@
         <v>250</v>
       </c>
       <c r="K118" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="L118" s="3">
         <v>1</v>
@@ -5764,10 +5753,10 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B119" s="3">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>32</v>
@@ -5779,10 +5768,10 @@
         <v>20</v>
       </c>
       <c r="F119" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G119" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="H119" s="3">
         <v>0.5</v>
@@ -5794,7 +5783,7 @@
         <v>250</v>
       </c>
       <c r="K119" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="L119" s="3">
         <v>1</v>
@@ -5808,10 +5797,10 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B120" s="3">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>32</v>
@@ -5823,10 +5812,10 @@
         <v>20</v>
       </c>
       <c r="F120" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G120" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="H120" s="3">
         <v>0.5</v>
@@ -5838,7 +5827,7 @@
         <v>250</v>
       </c>
       <c r="K120" s="3">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="L120" s="3">
         <v>1</v>
@@ -5852,10 +5841,10 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B121" s="3">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>32</v>
@@ -5867,10 +5856,10 @@
         <v>20</v>
       </c>
       <c r="F121" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G121" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="H121" s="3">
         <v>0.5</v>
@@ -5882,7 +5871,7 @@
         <v>250</v>
       </c>
       <c r="K121" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="L121" s="3">
         <v>1</v>
@@ -5891,138 +5880,6 @@
         <v>1</v>
       </c>
       <c r="N121" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="3">
-        <v>328</v>
-      </c>
-      <c r="B122" s="3">
-        <v>328</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F122" s="3">
-        <v>8</v>
-      </c>
-      <c r="G122" s="3">
-        <v>108</v>
-      </c>
-      <c r="H122" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I122" s="3">
-        <v>500</v>
-      </c>
-      <c r="J122" s="3">
-        <v>250</v>
-      </c>
-      <c r="K122" s="3">
-        <v>800</v>
-      </c>
-      <c r="L122" s="3">
-        <v>1</v>
-      </c>
-      <c r="M122" s="3">
-        <v>1</v>
-      </c>
-      <c r="N122" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>329</v>
-      </c>
-      <c r="B123" s="3">
-        <v>329</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" s="3">
-        <v>9</v>
-      </c>
-      <c r="G123" s="3">
-        <v>120</v>
-      </c>
-      <c r="H123" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I123" s="3">
-        <v>500</v>
-      </c>
-      <c r="J123" s="3">
-        <v>250</v>
-      </c>
-      <c r="K123" s="3">
-        <v>900</v>
-      </c>
-      <c r="L123" s="3">
-        <v>1</v>
-      </c>
-      <c r="M123" s="3">
-        <v>1</v>
-      </c>
-      <c r="N123" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="3">
-        <v>330</v>
-      </c>
-      <c r="B124" s="3">
-        <v>330</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F124" s="3">
-        <v>10</v>
-      </c>
-      <c r="G124" s="3">
-        <v>132</v>
-      </c>
-      <c r="H124" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I124" s="3">
-        <v>500</v>
-      </c>
-      <c r="J124" s="3">
-        <v>250</v>
-      </c>
-      <c r="K124" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L124" s="3">
-        <v>1</v>
-      </c>
-      <c r="M124" s="3">
-        <v>1</v>
-      </c>
-      <c r="N124" s="3">
         <v>2</v>
       </c>
     </row>

--- a/Table/Tower_Data.xlsx
+++ b/Table/Tower_Data.xlsx
@@ -554,7 +554,7 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -638,10 +638,10 @@
         <v>100</v>
       </c>
       <c r="H2" s="3">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I2" s="3">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="J2" s="3">
         <v>250</v>

--- a/Table/Tower_Data.xlsx
+++ b/Table/Tower_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimchangWon\Desktop\Unity\20171109\New-TestGit\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimchangWon\Desktop\Unity\20171112\New-TestGit\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="31">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>GameCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:P91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F2" sqref="F2:G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -562,13 +566,14 @@
     <col min="1" max="1" width="6.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="15.59765625" customWidth="1"/>
-    <col min="14" max="14" width="21.69921875" customWidth="1"/>
-    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="11.09765625" customWidth="1"/>
+    <col min="13" max="13" width="12.8984375" customWidth="1"/>
+    <col min="14" max="14" width="15.59765625" customWidth="1"/>
+    <col min="15" max="15" width="21.69921875" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,34 +593,37 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -635,34 +643,37 @@
         <v>1</v>
       </c>
       <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>100</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
-      <c r="I2" s="3">
-        <v>2</v>
-      </c>
       <c r="J2" s="3">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="K2" s="3">
+        <v>250</v>
+      </c>
+      <c r="L2" s="3">
         <v>100</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>30</v>
       </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
       <c r="N2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -682,34 +693,37 @@
         <v>2</v>
       </c>
       <c r="G3" s="3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
         <v>36</v>
       </c>
-      <c r="H3" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I3" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K3" s="3">
+        <v>250</v>
+      </c>
+      <c r="L3" s="3">
         <v>200</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>30</v>
       </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -729,34 +743,37 @@
         <v>3</v>
       </c>
       <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
         <v>48</v>
       </c>
-      <c r="H4" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I4" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K4" s="3">
+        <v>250</v>
+      </c>
+      <c r="L4" s="3">
         <v>300</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>30</v>
       </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
       <c r="N4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -776,34 +793,37 @@
         <v>4</v>
       </c>
       <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
         <v>60</v>
       </c>
-      <c r="H5" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I5" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K5" s="3">
+        <v>250</v>
+      </c>
+      <c r="L5" s="3">
         <v>400</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>30</v>
       </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
       <c r="N5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -823,34 +843,37 @@
         <v>5</v>
       </c>
       <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
         <v>72</v>
       </c>
-      <c r="H6" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I6" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J6" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K6" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L6" s="3">
+        <v>500</v>
+      </c>
+      <c r="M6" s="3">
         <v>30</v>
       </c>
-      <c r="M6" s="3">
-        <v>1</v>
-      </c>
       <c r="N6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -870,34 +893,37 @@
         <v>6</v>
       </c>
       <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
         <v>84</v>
       </c>
-      <c r="H7" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I7" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K7" s="3">
+        <v>250</v>
+      </c>
+      <c r="L7" s="3">
         <v>600</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>30</v>
       </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
       <c r="N7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -917,34 +943,37 @@
         <v>7</v>
       </c>
       <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3">
         <v>96</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I8" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K8" s="3">
+        <v>250</v>
+      </c>
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30</v>
       </c>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -964,34 +993,37 @@
         <v>8</v>
       </c>
       <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
         <v>108</v>
       </c>
-      <c r="H9" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I9" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K9" s="3">
+        <v>250</v>
+      </c>
+      <c r="L9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>30</v>
       </c>
-      <c r="M9" s="3">
-        <v>1</v>
-      </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1011,34 +1043,37 @@
         <v>9</v>
       </c>
       <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3">
         <v>120</v>
       </c>
-      <c r="H10" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K10" s="3">
+        <v>250</v>
+      </c>
+      <c r="L10" s="3">
         <v>900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>30</v>
       </c>
-      <c r="M10" s="3">
-        <v>1</v>
-      </c>
       <c r="N10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1058,34 +1093,37 @@
         <v>10</v>
       </c>
       <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
         <v>132</v>
       </c>
-      <c r="H11" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I11" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J11" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K11" s="3">
+        <v>250</v>
+      </c>
+      <c r="L11" s="3">
         <v>1000</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>30</v>
       </c>
-      <c r="M11" s="3">
-        <v>1</v>
-      </c>
       <c r="N11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1105,34 +1143,37 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
         <v>24</v>
       </c>
-      <c r="H12" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I12" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K12" s="3">
+        <v>250</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50</v>
       </c>
-      <c r="M12" s="3">
-        <v>2</v>
-      </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1152,34 +1193,37 @@
         <v>2</v>
       </c>
       <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
         <v>36</v>
       </c>
-      <c r="H13" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I13" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J13" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K13" s="3">
+        <v>250</v>
+      </c>
+      <c r="L13" s="3">
         <v>200</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>50</v>
       </c>
-      <c r="M13" s="3">
-        <v>2</v>
-      </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1199,34 +1243,37 @@
         <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
         <v>48</v>
       </c>
-      <c r="H14" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I14" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J14" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K14" s="3">
+        <v>250</v>
+      </c>
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>50</v>
       </c>
-      <c r="M14" s="3">
-        <v>2</v>
-      </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1246,34 +1293,37 @@
         <v>4</v>
       </c>
       <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
         <v>60</v>
       </c>
-      <c r="H15" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I15" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K15" s="3">
+        <v>250</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>50</v>
       </c>
-      <c r="M15" s="3">
-        <v>2</v>
-      </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1293,34 +1343,37 @@
         <v>5</v>
       </c>
       <c r="G16" s="3">
+        <v>5</v>
+      </c>
+      <c r="H16" s="3">
         <v>72</v>
       </c>
-      <c r="H16" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I16" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K16" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L16" s="3">
+        <v>500</v>
+      </c>
+      <c r="M16" s="3">
         <v>50</v>
       </c>
-      <c r="M16" s="3">
-        <v>2</v>
-      </c>
       <c r="N16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1340,34 +1393,37 @@
         <v>6</v>
       </c>
       <c r="G17" s="3">
+        <v>6</v>
+      </c>
+      <c r="H17" s="3">
         <v>84</v>
       </c>
-      <c r="H17" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>250</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50</v>
       </c>
-      <c r="M17" s="3">
-        <v>2</v>
-      </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1387,34 +1443,37 @@
         <v>7</v>
       </c>
       <c r="G18" s="3">
+        <v>7</v>
+      </c>
+      <c r="H18" s="3">
         <v>96</v>
       </c>
-      <c r="H18" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I18" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K18" s="3">
+        <v>250</v>
+      </c>
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>50</v>
       </c>
-      <c r="M18" s="3">
-        <v>2</v>
-      </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1434,34 +1493,37 @@
         <v>8</v>
       </c>
       <c r="G19" s="3">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3">
         <v>108</v>
       </c>
-      <c r="H19" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I19" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J19" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K19" s="3">
+        <v>250</v>
+      </c>
+      <c r="L19" s="3">
         <v>800</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>50</v>
       </c>
-      <c r="M19" s="3">
-        <v>2</v>
-      </c>
       <c r="N19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1481,34 +1543,37 @@
         <v>9</v>
       </c>
       <c r="G20" s="3">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
         <v>120</v>
       </c>
-      <c r="H20" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I20" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J20" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K20" s="3">
+        <v>250</v>
+      </c>
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>50</v>
       </c>
-      <c r="M20" s="3">
-        <v>2</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1528,34 +1593,37 @@
         <v>10</v>
       </c>
       <c r="G21" s="3">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
         <v>132</v>
       </c>
-      <c r="H21" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I21" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J21" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K21" s="3">
+        <v>250</v>
+      </c>
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50</v>
       </c>
-      <c r="M21" s="3">
-        <v>2</v>
-      </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1575,34 +1643,37 @@
         <v>1</v>
       </c>
       <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
         <v>24</v>
       </c>
-      <c r="H22" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I22" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K22" s="3">
+        <v>250</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>80</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1622,34 +1693,37 @@
         <v>2</v>
       </c>
       <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
         <v>36</v>
       </c>
-      <c r="H23" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I23" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J23" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K23" s="3">
+        <v>250</v>
+      </c>
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>80</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1669,34 +1743,37 @@
         <v>3</v>
       </c>
       <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
         <v>48</v>
       </c>
-      <c r="H24" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I24" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J24" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K24" s="3">
+        <v>250</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>80</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1716,34 +1793,37 @@
         <v>4</v>
       </c>
       <c r="G25" s="3">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3">
         <v>60</v>
       </c>
-      <c r="H25" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I25" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J25" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K25" s="3">
+        <v>250</v>
+      </c>
+      <c r="L25" s="3">
         <v>400</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>80</v>
       </c>
-      <c r="M25" s="3">
+      <c r="N25" s="3">
         <v>3</v>
       </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1763,34 +1843,37 @@
         <v>5</v>
       </c>
       <c r="G26" s="3">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
         <v>72</v>
       </c>
-      <c r="H26" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I26" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J26" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K26" s="3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L26" s="3">
+        <v>500</v>
+      </c>
+      <c r="M26" s="3">
         <v>80</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1810,34 +1893,37 @@
         <v>6</v>
       </c>
       <c r="G27" s="3">
+        <v>6</v>
+      </c>
+      <c r="H27" s="3">
         <v>84</v>
       </c>
-      <c r="H27" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I27" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J27" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K27" s="3">
+        <v>250</v>
+      </c>
+      <c r="L27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>80</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1857,34 +1943,37 @@
         <v>7</v>
       </c>
       <c r="G28" s="3">
+        <v>7</v>
+      </c>
+      <c r="H28" s="3">
         <v>96</v>
       </c>
-      <c r="H28" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I28" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J28" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K28" s="3">
+        <v>250</v>
+      </c>
+      <c r="L28" s="3">
         <v>700</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>80</v>
       </c>
-      <c r="M28" s="3">
+      <c r="N28" s="3">
         <v>3</v>
       </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1904,34 +1993,37 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
         <v>108</v>
       </c>
-      <c r="H29" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I29" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K29" s="3">
+        <v>250</v>
+      </c>
+      <c r="L29" s="3">
         <v>800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>80</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1951,34 +2043,37 @@
         <v>9</v>
       </c>
       <c r="G30" s="3">
+        <v>9</v>
+      </c>
+      <c r="H30" s="3">
         <v>120</v>
       </c>
-      <c r="H30" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I30" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K30" s="3">
+        <v>250</v>
+      </c>
+      <c r="L30" s="3">
         <v>900</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>80</v>
       </c>
-      <c r="M30" s="3">
+      <c r="N30" s="3">
         <v>3</v>
       </c>
-      <c r="N30" s="3">
-        <v>0</v>
-      </c>
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1998,34 +2093,37 @@
         <v>10</v>
       </c>
       <c r="G31" s="3">
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
         <v>132</v>
       </c>
-      <c r="H31" s="3">
-        <v>0.5</v>
-      </c>
       <c r="I31" s="3">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J31" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K31" s="3">
+        <v>250</v>
+      </c>
+      <c r="L31" s="3">
         <v>1000</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>80</v>
       </c>
-      <c r="M31" s="3">
+      <c r="N31" s="3">
         <v>3</v>
       </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>101</v>
       </c>
@@ -2045,34 +2143,37 @@
         <v>1</v>
       </c>
       <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
         <v>100</v>
       </c>
-      <c r="H32" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I32" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J32" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K32" s="2">
+        <v>250</v>
+      </c>
+      <c r="L32" s="2">
         <v>100</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <v>30</v>
       </c>
-      <c r="M32" s="2">
-        <v>1</v>
-      </c>
       <c r="N32" s="2">
         <v>1</v>
       </c>
       <c r="O32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>102</v>
       </c>
@@ -2092,34 +2193,37 @@
         <v>2</v>
       </c>
       <c r="G33" s="2">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2">
         <v>36</v>
       </c>
-      <c r="H33" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I33" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J33" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K33" s="2">
+        <v>250</v>
+      </c>
+      <c r="L33" s="2">
         <v>200</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <v>30</v>
       </c>
-      <c r="M33" s="2">
-        <v>1</v>
-      </c>
       <c r="N33" s="2">
         <v>1</v>
       </c>
       <c r="O33" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>103</v>
       </c>
@@ -2139,34 +2243,37 @@
         <v>3</v>
       </c>
       <c r="G34" s="2">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2">
         <v>48</v>
       </c>
-      <c r="H34" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I34" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J34" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K34" s="2">
+        <v>250</v>
+      </c>
+      <c r="L34" s="2">
         <v>300</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <v>30</v>
       </c>
-      <c r="M34" s="2">
-        <v>1</v>
-      </c>
       <c r="N34" s="2">
         <v>1</v>
       </c>
       <c r="O34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>104</v>
       </c>
@@ -2186,34 +2293,37 @@
         <v>4</v>
       </c>
       <c r="G35" s="2">
+        <v>4</v>
+      </c>
+      <c r="H35" s="2">
         <v>60</v>
       </c>
-      <c r="H35" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I35" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J35" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K35" s="2">
+        <v>250</v>
+      </c>
+      <c r="L35" s="2">
         <v>400</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <v>30</v>
       </c>
-      <c r="M35" s="2">
-        <v>1</v>
-      </c>
       <c r="N35" s="2">
         <v>1</v>
       </c>
       <c r="O35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>105</v>
       </c>
@@ -2233,34 +2343,37 @@
         <v>5</v>
       </c>
       <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2">
         <v>72</v>
       </c>
-      <c r="H36" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I36" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J36" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K36" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L36" s="2">
+        <v>500</v>
+      </c>
+      <c r="M36" s="2">
         <v>30</v>
       </c>
-      <c r="M36" s="2">
-        <v>1</v>
-      </c>
       <c r="N36" s="2">
         <v>1</v>
       </c>
       <c r="O36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>106</v>
       </c>
@@ -2280,34 +2393,37 @@
         <v>6</v>
       </c>
       <c r="G37" s="2">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2">
         <v>84</v>
       </c>
-      <c r="H37" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I37" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J37" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K37" s="2">
+        <v>250</v>
+      </c>
+      <c r="L37" s="2">
         <v>600</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <v>30</v>
       </c>
-      <c r="M37" s="2">
-        <v>1</v>
-      </c>
       <c r="N37" s="2">
         <v>1</v>
       </c>
       <c r="O37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>107</v>
       </c>
@@ -2327,34 +2443,37 @@
         <v>7</v>
       </c>
       <c r="G38" s="2">
+        <v>7</v>
+      </c>
+      <c r="H38" s="2">
         <v>96</v>
       </c>
-      <c r="H38" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I38" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J38" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K38" s="2">
+        <v>250</v>
+      </c>
+      <c r="L38" s="2">
         <v>700</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>30</v>
       </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
       <c r="N38" s="2">
         <v>1</v>
       </c>
       <c r="O38" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>108</v>
       </c>
@@ -2374,34 +2493,37 @@
         <v>8</v>
       </c>
       <c r="G39" s="2">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2">
         <v>108</v>
       </c>
-      <c r="H39" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I39" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J39" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K39" s="2">
+        <v>250</v>
+      </c>
+      <c r="L39" s="2">
         <v>800</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <v>30</v>
       </c>
-      <c r="M39" s="2">
-        <v>1</v>
-      </c>
       <c r="N39" s="2">
         <v>1</v>
       </c>
       <c r="O39" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>109</v>
       </c>
@@ -2421,34 +2543,37 @@
         <v>9</v>
       </c>
       <c r="G40" s="2">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2">
         <v>120</v>
       </c>
-      <c r="H40" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I40" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J40" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K40" s="2">
+        <v>250</v>
+      </c>
+      <c r="L40" s="2">
         <v>900</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <v>30</v>
       </c>
-      <c r="M40" s="2">
-        <v>1</v>
-      </c>
       <c r="N40" s="2">
         <v>1</v>
       </c>
       <c r="O40" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>110</v>
       </c>
@@ -2468,34 +2593,37 @@
         <v>10</v>
       </c>
       <c r="G41" s="2">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2">
         <v>132</v>
       </c>
-      <c r="H41" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I41" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K41" s="2">
+        <v>250</v>
+      </c>
+      <c r="L41" s="2">
         <v>1000</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <v>30</v>
       </c>
-      <c r="M41" s="2">
-        <v>1</v>
-      </c>
       <c r="N41" s="2">
         <v>1</v>
       </c>
       <c r="O41" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>111</v>
       </c>
@@ -2515,34 +2643,37 @@
         <v>1</v>
       </c>
       <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
         <v>24</v>
       </c>
-      <c r="H42" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I42" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J42" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K42" s="2">
+        <v>250</v>
+      </c>
+      <c r="L42" s="2">
         <v>100</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <v>50</v>
       </c>
-      <c r="M42" s="2">
-        <v>1</v>
-      </c>
       <c r="N42" s="2">
         <v>1</v>
       </c>
       <c r="O42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>112</v>
       </c>
@@ -2562,34 +2693,37 @@
         <v>2</v>
       </c>
       <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
         <v>36</v>
       </c>
-      <c r="H43" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I43" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J43" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K43" s="2">
+        <v>250</v>
+      </c>
+      <c r="L43" s="2">
         <v>200</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <v>50</v>
       </c>
-      <c r="M43" s="2">
-        <v>1</v>
-      </c>
       <c r="N43" s="2">
         <v>1</v>
       </c>
       <c r="O43" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>113</v>
       </c>
@@ -2609,34 +2743,37 @@
         <v>3</v>
       </c>
       <c r="G44" s="2">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2">
         <v>48</v>
       </c>
-      <c r="H44" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I44" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J44" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K44" s="2">
+        <v>250</v>
+      </c>
+      <c r="L44" s="2">
         <v>300</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <v>50</v>
       </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
       <c r="N44" s="2">
         <v>1</v>
       </c>
       <c r="O44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>114</v>
       </c>
@@ -2656,34 +2793,37 @@
         <v>4</v>
       </c>
       <c r="G45" s="2">
+        <v>4</v>
+      </c>
+      <c r="H45" s="2">
         <v>60</v>
       </c>
-      <c r="H45" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I45" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K45" s="2">
+        <v>250</v>
+      </c>
+      <c r="L45" s="2">
         <v>400</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <v>50</v>
       </c>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
       <c r="N45" s="2">
         <v>1</v>
       </c>
       <c r="O45" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>115</v>
       </c>
@@ -2703,34 +2843,37 @@
         <v>5</v>
       </c>
       <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2">
         <v>72</v>
       </c>
-      <c r="H46" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I46" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J46" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K46" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L46" s="2">
+        <v>500</v>
+      </c>
+      <c r="M46" s="2">
         <v>50</v>
       </c>
-      <c r="M46" s="2">
-        <v>1</v>
-      </c>
       <c r="N46" s="2">
         <v>1</v>
       </c>
       <c r="O46" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>116</v>
       </c>
@@ -2750,34 +2893,37 @@
         <v>6</v>
       </c>
       <c r="G47" s="2">
+        <v>6</v>
+      </c>
+      <c r="H47" s="2">
         <v>84</v>
       </c>
-      <c r="H47" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I47" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J47" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K47" s="2">
+        <v>250</v>
+      </c>
+      <c r="L47" s="2">
         <v>600</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <v>50</v>
       </c>
-      <c r="M47" s="2">
-        <v>1</v>
-      </c>
       <c r="N47" s="2">
         <v>1</v>
       </c>
       <c r="O47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>117</v>
       </c>
@@ -2797,34 +2943,37 @@
         <v>7</v>
       </c>
       <c r="G48" s="2">
+        <v>7</v>
+      </c>
+      <c r="H48" s="2">
         <v>96</v>
       </c>
-      <c r="H48" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I48" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J48" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K48" s="2">
+        <v>250</v>
+      </c>
+      <c r="L48" s="2">
         <v>700</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <v>50</v>
       </c>
-      <c r="M48" s="2">
-        <v>1</v>
-      </c>
       <c r="N48" s="2">
         <v>1</v>
       </c>
       <c r="O48" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>118</v>
       </c>
@@ -2844,34 +2993,37 @@
         <v>8</v>
       </c>
       <c r="G49" s="2">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2">
         <v>108</v>
       </c>
-      <c r="H49" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I49" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J49" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K49" s="2">
+        <v>250</v>
+      </c>
+      <c r="L49" s="2">
         <v>800</v>
       </c>
-      <c r="L49" s="2">
+      <c r="M49" s="2">
         <v>50</v>
       </c>
-      <c r="M49" s="2">
-        <v>1</v>
-      </c>
       <c r="N49" s="2">
         <v>1</v>
       </c>
       <c r="O49" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>119</v>
       </c>
@@ -2891,34 +3043,37 @@
         <v>9</v>
       </c>
       <c r="G50" s="2">
+        <v>9</v>
+      </c>
+      <c r="H50" s="2">
         <v>120</v>
       </c>
-      <c r="H50" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I50" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J50" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K50" s="2">
+        <v>250</v>
+      </c>
+      <c r="L50" s="2">
         <v>900</v>
       </c>
-      <c r="L50" s="2">
+      <c r="M50" s="2">
         <v>50</v>
       </c>
-      <c r="M50" s="2">
-        <v>1</v>
-      </c>
       <c r="N50" s="2">
         <v>1</v>
       </c>
       <c r="O50" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>120</v>
       </c>
@@ -2938,34 +3093,37 @@
         <v>10</v>
       </c>
       <c r="G51" s="2">
+        <v>10</v>
+      </c>
+      <c r="H51" s="2">
         <v>132</v>
       </c>
-      <c r="H51" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I51" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J51" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K51" s="2">
+        <v>250</v>
+      </c>
+      <c r="L51" s="2">
         <v>1000</v>
       </c>
-      <c r="L51" s="2">
+      <c r="M51" s="2">
         <v>50</v>
       </c>
-      <c r="M51" s="2">
-        <v>1</v>
-      </c>
       <c r="N51" s="2">
         <v>1</v>
       </c>
       <c r="O51" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>121</v>
       </c>
@@ -2985,34 +3143,37 @@
         <v>1</v>
       </c>
       <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
         <v>24</v>
       </c>
-      <c r="H52" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I52" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J52" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K52" s="2">
+        <v>250</v>
+      </c>
+      <c r="L52" s="2">
         <v>100</v>
       </c>
-      <c r="L52" s="2">
+      <c r="M52" s="2">
         <v>80</v>
       </c>
-      <c r="M52" s="2">
-        <v>1</v>
-      </c>
       <c r="N52" s="2">
         <v>1</v>
       </c>
       <c r="O52" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>122</v>
       </c>
@@ -3032,34 +3193,37 @@
         <v>2</v>
       </c>
       <c r="G53" s="2">
+        <v>2</v>
+      </c>
+      <c r="H53" s="2">
         <v>36</v>
       </c>
-      <c r="H53" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I53" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J53" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K53" s="2">
+        <v>250</v>
+      </c>
+      <c r="L53" s="2">
         <v>200</v>
       </c>
-      <c r="L53" s="2">
+      <c r="M53" s="2">
         <v>80</v>
       </c>
-      <c r="M53" s="2">
-        <v>1</v>
-      </c>
       <c r="N53" s="2">
         <v>1</v>
       </c>
       <c r="O53" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>123</v>
       </c>
@@ -3079,34 +3243,37 @@
         <v>3</v>
       </c>
       <c r="G54" s="2">
+        <v>3</v>
+      </c>
+      <c r="H54" s="2">
         <v>48</v>
       </c>
-      <c r="H54" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I54" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J54" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K54" s="2">
+        <v>250</v>
+      </c>
+      <c r="L54" s="2">
         <v>300</v>
       </c>
-      <c r="L54" s="2">
+      <c r="M54" s="2">
         <v>80</v>
       </c>
-      <c r="M54" s="2">
-        <v>1</v>
-      </c>
       <c r="N54" s="2">
         <v>1</v>
       </c>
       <c r="O54" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>124</v>
       </c>
@@ -3126,34 +3293,37 @@
         <v>4</v>
       </c>
       <c r="G55" s="2">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2">
         <v>60</v>
       </c>
-      <c r="H55" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I55" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J55" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K55" s="2">
+        <v>250</v>
+      </c>
+      <c r="L55" s="2">
         <v>400</v>
       </c>
-      <c r="L55" s="2">
+      <c r="M55" s="2">
         <v>80</v>
       </c>
-      <c r="M55" s="2">
-        <v>1</v>
-      </c>
       <c r="N55" s="2">
         <v>1</v>
       </c>
       <c r="O55" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>125</v>
       </c>
@@ -3173,34 +3343,37 @@
         <v>5</v>
       </c>
       <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2">
         <v>72</v>
       </c>
-      <c r="H56" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I56" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J56" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K56" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L56" s="2">
+        <v>500</v>
+      </c>
+      <c r="M56" s="2">
         <v>80</v>
       </c>
-      <c r="M56" s="2">
-        <v>1</v>
-      </c>
       <c r="N56" s="2">
         <v>1</v>
       </c>
       <c r="O56" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>126</v>
       </c>
@@ -3220,34 +3393,37 @@
         <v>6</v>
       </c>
       <c r="G57" s="2">
+        <v>6</v>
+      </c>
+      <c r="H57" s="2">
         <v>84</v>
       </c>
-      <c r="H57" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I57" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J57" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K57" s="2">
+        <v>250</v>
+      </c>
+      <c r="L57" s="2">
         <v>600</v>
       </c>
-      <c r="L57" s="2">
+      <c r="M57" s="2">
         <v>80</v>
       </c>
-      <c r="M57" s="2">
-        <v>1</v>
-      </c>
       <c r="N57" s="2">
         <v>1</v>
       </c>
       <c r="O57" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>127</v>
       </c>
@@ -3267,34 +3443,37 @@
         <v>7</v>
       </c>
       <c r="G58" s="2">
+        <v>7</v>
+      </c>
+      <c r="H58" s="2">
         <v>96</v>
       </c>
-      <c r="H58" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I58" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J58" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K58" s="2">
+        <v>250</v>
+      </c>
+      <c r="L58" s="2">
         <v>700</v>
       </c>
-      <c r="L58" s="2">
+      <c r="M58" s="2">
         <v>80</v>
       </c>
-      <c r="M58" s="2">
-        <v>1</v>
-      </c>
       <c r="N58" s="2">
         <v>1</v>
       </c>
       <c r="O58" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>128</v>
       </c>
@@ -3314,34 +3493,37 @@
         <v>8</v>
       </c>
       <c r="G59" s="2">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2">
         <v>108</v>
       </c>
-      <c r="H59" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I59" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J59" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K59" s="2">
+        <v>250</v>
+      </c>
+      <c r="L59" s="2">
         <v>800</v>
       </c>
-      <c r="L59" s="2">
+      <c r="M59" s="2">
         <v>80</v>
       </c>
-      <c r="M59" s="2">
-        <v>1</v>
-      </c>
       <c r="N59" s="2">
         <v>1</v>
       </c>
       <c r="O59" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>129</v>
       </c>
@@ -3361,34 +3543,37 @@
         <v>9</v>
       </c>
       <c r="G60" s="2">
+        <v>9</v>
+      </c>
+      <c r="H60" s="2">
         <v>120</v>
       </c>
-      <c r="H60" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I60" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J60" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K60" s="2">
+        <v>250</v>
+      </c>
+      <c r="L60" s="2">
         <v>900</v>
       </c>
-      <c r="L60" s="2">
+      <c r="M60" s="2">
         <v>80</v>
       </c>
-      <c r="M60" s="2">
-        <v>1</v>
-      </c>
       <c r="N60" s="2">
         <v>1</v>
       </c>
       <c r="O60" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>130</v>
       </c>
@@ -3408,34 +3593,37 @@
         <v>10</v>
       </c>
       <c r="G61" s="2">
+        <v>10</v>
+      </c>
+      <c r="H61" s="2">
         <v>132</v>
       </c>
-      <c r="H61" s="2">
-        <v>0.5</v>
-      </c>
       <c r="I61" s="2">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J61" s="2">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K61" s="2">
+        <v>250</v>
+      </c>
+      <c r="L61" s="2">
         <v>1000</v>
       </c>
-      <c r="L61" s="2">
+      <c r="M61" s="2">
         <v>80</v>
       </c>
-      <c r="M61" s="2">
-        <v>1</v>
-      </c>
       <c r="N61" s="2">
         <v>1</v>
       </c>
       <c r="O61" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>201</v>
       </c>
@@ -3455,34 +3643,37 @@
         <v>1</v>
       </c>
       <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
         <v>24</v>
       </c>
-      <c r="H62" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I62" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J62" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K62" s="4">
+        <v>250</v>
+      </c>
+      <c r="L62" s="4">
         <v>100</v>
       </c>
-      <c r="L62" s="4">
+      <c r="M62" s="4">
         <v>30</v>
       </c>
-      <c r="M62" s="4">
-        <v>1</v>
-      </c>
       <c r="N62" s="4">
         <v>1</v>
       </c>
       <c r="O62" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P62" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>202</v>
       </c>
@@ -3502,34 +3693,37 @@
         <v>2</v>
       </c>
       <c r="G63" s="4">
+        <v>2</v>
+      </c>
+      <c r="H63" s="4">
         <v>36</v>
       </c>
-      <c r="H63" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I63" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J63" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K63" s="4">
+        <v>250</v>
+      </c>
+      <c r="L63" s="4">
         <v>200</v>
       </c>
-      <c r="L63" s="4">
+      <c r="M63" s="4">
         <v>30</v>
       </c>
-      <c r="M63" s="4">
-        <v>1</v>
-      </c>
       <c r="N63" s="4">
         <v>1</v>
       </c>
       <c r="O63" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P63" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>203</v>
       </c>
@@ -3549,34 +3743,37 @@
         <v>3</v>
       </c>
       <c r="G64" s="4">
+        <v>3</v>
+      </c>
+      <c r="H64" s="4">
         <v>48</v>
       </c>
-      <c r="H64" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I64" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J64" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K64" s="4">
+        <v>250</v>
+      </c>
+      <c r="L64" s="4">
         <v>300</v>
       </c>
-      <c r="L64" s="4">
+      <c r="M64" s="4">
         <v>30</v>
       </c>
-      <c r="M64" s="4">
-        <v>1</v>
-      </c>
       <c r="N64" s="4">
         <v>1</v>
       </c>
       <c r="O64" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P64" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>204</v>
       </c>
@@ -3596,34 +3793,37 @@
         <v>4</v>
       </c>
       <c r="G65" s="4">
+        <v>4</v>
+      </c>
+      <c r="H65" s="4">
         <v>60</v>
       </c>
-      <c r="H65" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I65" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J65" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K65" s="4">
+        <v>250</v>
+      </c>
+      <c r="L65" s="4">
         <v>400</v>
       </c>
-      <c r="L65" s="4">
+      <c r="M65" s="4">
         <v>30</v>
       </c>
-      <c r="M65" s="4">
-        <v>1</v>
-      </c>
       <c r="N65" s="4">
         <v>1</v>
       </c>
       <c r="O65" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P65" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>205</v>
       </c>
@@ -3643,34 +3843,37 @@
         <v>5</v>
       </c>
       <c r="G66" s="4">
+        <v>5</v>
+      </c>
+      <c r="H66" s="4">
         <v>72</v>
       </c>
-      <c r="H66" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I66" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J66" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K66" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L66" s="4">
+        <v>500</v>
+      </c>
+      <c r="M66" s="4">
         <v>30</v>
       </c>
-      <c r="M66" s="4">
-        <v>1</v>
-      </c>
       <c r="N66" s="4">
         <v>1</v>
       </c>
       <c r="O66" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P66" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>206</v>
       </c>
@@ -3690,34 +3893,37 @@
         <v>6</v>
       </c>
       <c r="G67" s="4">
+        <v>6</v>
+      </c>
+      <c r="H67" s="4">
         <v>84</v>
       </c>
-      <c r="H67" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I67" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J67" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K67" s="4">
+        <v>250</v>
+      </c>
+      <c r="L67" s="4">
         <v>600</v>
       </c>
-      <c r="L67" s="4">
+      <c r="M67" s="4">
         <v>30</v>
       </c>
-      <c r="M67" s="4">
-        <v>1</v>
-      </c>
       <c r="N67" s="4">
         <v>1</v>
       </c>
       <c r="O67" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P67" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>207</v>
       </c>
@@ -3737,34 +3943,37 @@
         <v>7</v>
       </c>
       <c r="G68" s="4">
+        <v>7</v>
+      </c>
+      <c r="H68" s="4">
         <v>96</v>
       </c>
-      <c r="H68" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I68" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J68" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K68" s="4">
+        <v>250</v>
+      </c>
+      <c r="L68" s="4">
         <v>700</v>
       </c>
-      <c r="L68" s="4">
+      <c r="M68" s="4">
         <v>30</v>
       </c>
-      <c r="M68" s="4">
-        <v>1</v>
-      </c>
       <c r="N68" s="4">
         <v>1</v>
       </c>
       <c r="O68" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>208</v>
       </c>
@@ -3784,34 +3993,37 @@
         <v>8</v>
       </c>
       <c r="G69" s="4">
+        <v>8</v>
+      </c>
+      <c r="H69" s="4">
         <v>108</v>
       </c>
-      <c r="H69" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I69" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J69" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K69" s="4">
+        <v>250</v>
+      </c>
+      <c r="L69" s="4">
         <v>800</v>
       </c>
-      <c r="L69" s="4">
+      <c r="M69" s="4">
         <v>30</v>
       </c>
-      <c r="M69" s="4">
-        <v>1</v>
-      </c>
       <c r="N69" s="4">
         <v>1</v>
       </c>
       <c r="O69" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>209</v>
       </c>
@@ -3831,34 +4043,37 @@
         <v>9</v>
       </c>
       <c r="G70" s="4">
+        <v>9</v>
+      </c>
+      <c r="H70" s="4">
         <v>120</v>
       </c>
-      <c r="H70" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I70" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J70" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K70" s="4">
+        <v>250</v>
+      </c>
+      <c r="L70" s="4">
         <v>900</v>
       </c>
-      <c r="L70" s="4">
+      <c r="M70" s="4">
         <v>30</v>
       </c>
-      <c r="M70" s="4">
-        <v>1</v>
-      </c>
       <c r="N70" s="4">
         <v>1</v>
       </c>
       <c r="O70" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>210</v>
       </c>
@@ -3878,34 +4093,37 @@
         <v>10</v>
       </c>
       <c r="G71" s="4">
+        <v>10</v>
+      </c>
+      <c r="H71" s="4">
         <v>132</v>
       </c>
-      <c r="H71" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I71" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J71" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K71" s="4">
+        <v>250</v>
+      </c>
+      <c r="L71" s="4">
         <v>1000</v>
       </c>
-      <c r="L71" s="4">
+      <c r="M71" s="4">
         <v>30</v>
       </c>
-      <c r="M71" s="4">
-        <v>1</v>
-      </c>
       <c r="N71" s="4">
         <v>1</v>
       </c>
       <c r="O71" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>211</v>
       </c>
@@ -3925,34 +4143,37 @@
         <v>1</v>
       </c>
       <c r="G72" s="4">
+        <v>1</v>
+      </c>
+      <c r="H72" s="4">
         <v>24</v>
       </c>
-      <c r="H72" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I72" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J72" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K72" s="4">
+        <v>250</v>
+      </c>
+      <c r="L72" s="4">
         <v>100</v>
       </c>
-      <c r="L72" s="4">
+      <c r="M72" s="4">
         <v>50</v>
       </c>
-      <c r="M72" s="4">
-        <v>1</v>
-      </c>
       <c r="N72" s="4">
         <v>1</v>
       </c>
       <c r="O72" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>212</v>
       </c>
@@ -3972,34 +4193,37 @@
         <v>2</v>
       </c>
       <c r="G73" s="4">
+        <v>2</v>
+      </c>
+      <c r="H73" s="4">
         <v>36</v>
       </c>
-      <c r="H73" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I73" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J73" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K73" s="4">
+        <v>250</v>
+      </c>
+      <c r="L73" s="4">
         <v>200</v>
       </c>
-      <c r="L73" s="4">
+      <c r="M73" s="4">
         <v>50</v>
       </c>
-      <c r="M73" s="4">
-        <v>1</v>
-      </c>
       <c r="N73" s="4">
         <v>1</v>
       </c>
       <c r="O73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>213</v>
       </c>
@@ -4019,34 +4243,37 @@
         <v>3</v>
       </c>
       <c r="G74" s="4">
+        <v>3</v>
+      </c>
+      <c r="H74" s="4">
         <v>48</v>
       </c>
-      <c r="H74" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I74" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J74" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K74" s="4">
+        <v>250</v>
+      </c>
+      <c r="L74" s="4">
         <v>300</v>
       </c>
-      <c r="L74" s="4">
+      <c r="M74" s="4">
         <v>50</v>
       </c>
-      <c r="M74" s="4">
-        <v>1</v>
-      </c>
       <c r="N74" s="4">
         <v>1</v>
       </c>
       <c r="O74" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>214</v>
       </c>
@@ -4066,34 +4293,37 @@
         <v>4</v>
       </c>
       <c r="G75" s="4">
+        <v>4</v>
+      </c>
+      <c r="H75" s="4">
         <v>60</v>
       </c>
-      <c r="H75" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I75" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J75" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K75" s="4">
+        <v>250</v>
+      </c>
+      <c r="L75" s="4">
         <v>400</v>
       </c>
-      <c r="L75" s="4">
+      <c r="M75" s="4">
         <v>50</v>
       </c>
-      <c r="M75" s="4">
-        <v>1</v>
-      </c>
       <c r="N75" s="4">
         <v>1</v>
       </c>
       <c r="O75" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>215</v>
       </c>
@@ -4113,34 +4343,37 @@
         <v>5</v>
       </c>
       <c r="G76" s="4">
+        <v>5</v>
+      </c>
+      <c r="H76" s="4">
         <v>72</v>
       </c>
-      <c r="H76" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I76" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J76" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K76" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L76" s="4">
+        <v>500</v>
+      </c>
+      <c r="M76" s="4">
         <v>50</v>
       </c>
-      <c r="M76" s="4">
-        <v>1</v>
-      </c>
       <c r="N76" s="4">
         <v>1</v>
       </c>
       <c r="O76" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>216</v>
       </c>
@@ -4160,34 +4393,37 @@
         <v>6</v>
       </c>
       <c r="G77" s="4">
+        <v>6</v>
+      </c>
+      <c r="H77" s="4">
         <v>84</v>
       </c>
-      <c r="H77" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I77" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J77" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K77" s="4">
+        <v>250</v>
+      </c>
+      <c r="L77" s="4">
         <v>600</v>
       </c>
-      <c r="L77" s="4">
+      <c r="M77" s="4">
         <v>50</v>
       </c>
-      <c r="M77" s="4">
-        <v>1</v>
-      </c>
       <c r="N77" s="4">
         <v>1</v>
       </c>
       <c r="O77" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>217</v>
       </c>
@@ -4207,34 +4443,37 @@
         <v>7</v>
       </c>
       <c r="G78" s="4">
+        <v>7</v>
+      </c>
+      <c r="H78" s="4">
         <v>96</v>
       </c>
-      <c r="H78" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I78" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J78" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K78" s="4">
+        <v>250</v>
+      </c>
+      <c r="L78" s="4">
         <v>700</v>
       </c>
-      <c r="L78" s="4">
+      <c r="M78" s="4">
         <v>50</v>
       </c>
-      <c r="M78" s="4">
-        <v>1</v>
-      </c>
       <c r="N78" s="4">
         <v>1</v>
       </c>
       <c r="O78" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>218</v>
       </c>
@@ -4254,34 +4493,37 @@
         <v>8</v>
       </c>
       <c r="G79" s="4">
+        <v>8</v>
+      </c>
+      <c r="H79" s="4">
         <v>108</v>
       </c>
-      <c r="H79" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I79" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J79" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K79" s="4">
+        <v>250</v>
+      </c>
+      <c r="L79" s="4">
         <v>800</v>
       </c>
-      <c r="L79" s="4">
+      <c r="M79" s="4">
         <v>50</v>
       </c>
-      <c r="M79" s="4">
-        <v>1</v>
-      </c>
       <c r="N79" s="4">
         <v>1</v>
       </c>
       <c r="O79" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P79" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>219</v>
       </c>
@@ -4301,34 +4543,37 @@
         <v>9</v>
       </c>
       <c r="G80" s="4">
+        <v>9</v>
+      </c>
+      <c r="H80" s="4">
         <v>120</v>
       </c>
-      <c r="H80" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I80" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J80" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K80" s="4">
+        <v>250</v>
+      </c>
+      <c r="L80" s="4">
         <v>900</v>
       </c>
-      <c r="L80" s="4">
+      <c r="M80" s="4">
         <v>50</v>
       </c>
-      <c r="M80" s="4">
-        <v>1</v>
-      </c>
       <c r="N80" s="4">
         <v>1</v>
       </c>
       <c r="O80" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P80" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>220</v>
       </c>
@@ -4348,34 +4593,37 @@
         <v>10</v>
       </c>
       <c r="G81" s="4">
+        <v>10</v>
+      </c>
+      <c r="H81" s="4">
         <v>132</v>
       </c>
-      <c r="H81" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I81" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J81" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K81" s="4">
+        <v>250</v>
+      </c>
+      <c r="L81" s="4">
         <v>1000</v>
       </c>
-      <c r="L81" s="4">
+      <c r="M81" s="4">
         <v>50</v>
       </c>
-      <c r="M81" s="4">
-        <v>1</v>
-      </c>
       <c r="N81" s="4">
         <v>1</v>
       </c>
       <c r="O81" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P81" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>221</v>
       </c>
@@ -4395,34 +4643,37 @@
         <v>1</v>
       </c>
       <c r="G82" s="4">
+        <v>1</v>
+      </c>
+      <c r="H82" s="4">
         <v>24</v>
       </c>
-      <c r="H82" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I82" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J82" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K82" s="4">
+        <v>250</v>
+      </c>
+      <c r="L82" s="4">
         <v>100</v>
       </c>
-      <c r="L82" s="4">
+      <c r="M82" s="4">
         <v>80</v>
       </c>
-      <c r="M82" s="4">
-        <v>1</v>
-      </c>
       <c r="N82" s="4">
         <v>1</v>
       </c>
       <c r="O82" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P82" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>222</v>
       </c>
@@ -4442,34 +4693,37 @@
         <v>2</v>
       </c>
       <c r="G83" s="4">
+        <v>2</v>
+      </c>
+      <c r="H83" s="4">
         <v>36</v>
       </c>
-      <c r="H83" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I83" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J83" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K83" s="4">
+        <v>250</v>
+      </c>
+      <c r="L83" s="4">
         <v>200</v>
       </c>
-      <c r="L83" s="4">
+      <c r="M83" s="4">
         <v>80</v>
       </c>
-      <c r="M83" s="4">
-        <v>1</v>
-      </c>
       <c r="N83" s="4">
         <v>1</v>
       </c>
       <c r="O83" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P83" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>223</v>
       </c>
@@ -4489,34 +4743,37 @@
         <v>3</v>
       </c>
       <c r="G84" s="4">
+        <v>3</v>
+      </c>
+      <c r="H84" s="4">
         <v>48</v>
       </c>
-      <c r="H84" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I84" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J84" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K84" s="4">
+        <v>250</v>
+      </c>
+      <c r="L84" s="4">
         <v>300</v>
       </c>
-      <c r="L84" s="4">
+      <c r="M84" s="4">
         <v>80</v>
       </c>
-      <c r="M84" s="4">
-        <v>1</v>
-      </c>
       <c r="N84" s="4">
         <v>1</v>
       </c>
       <c r="O84" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P84" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>224</v>
       </c>
@@ -4536,34 +4793,37 @@
         <v>4</v>
       </c>
       <c r="G85" s="4">
+        <v>4</v>
+      </c>
+      <c r="H85" s="4">
         <v>60</v>
       </c>
-      <c r="H85" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I85" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J85" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K85" s="4">
+        <v>250</v>
+      </c>
+      <c r="L85" s="4">
         <v>400</v>
       </c>
-      <c r="L85" s="4">
+      <c r="M85" s="4">
         <v>80</v>
       </c>
-      <c r="M85" s="4">
-        <v>1</v>
-      </c>
       <c r="N85" s="4">
         <v>1</v>
       </c>
       <c r="O85" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P85" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>225</v>
       </c>
@@ -4583,34 +4843,37 @@
         <v>5</v>
       </c>
       <c r="G86" s="4">
+        <v>5</v>
+      </c>
+      <c r="H86" s="4">
         <v>72</v>
       </c>
-      <c r="H86" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I86" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J86" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K86" s="4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="L86" s="4">
+        <v>500</v>
+      </c>
+      <c r="M86" s="4">
         <v>80</v>
       </c>
-      <c r="M86" s="4">
-        <v>1</v>
-      </c>
       <c r="N86" s="4">
         <v>1</v>
       </c>
       <c r="O86" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P86" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>226</v>
       </c>
@@ -4630,34 +4893,37 @@
         <v>6</v>
       </c>
       <c r="G87" s="4">
+        <v>6</v>
+      </c>
+      <c r="H87" s="4">
         <v>84</v>
       </c>
-      <c r="H87" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I87" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J87" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K87" s="4">
+        <v>250</v>
+      </c>
+      <c r="L87" s="4">
         <v>600</v>
       </c>
-      <c r="L87" s="4">
+      <c r="M87" s="4">
         <v>80</v>
       </c>
-      <c r="M87" s="4">
-        <v>1</v>
-      </c>
       <c r="N87" s="4">
         <v>1</v>
       </c>
       <c r="O87" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P87" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>227</v>
       </c>
@@ -4677,34 +4943,37 @@
         <v>7</v>
       </c>
       <c r="G88" s="4">
+        <v>7</v>
+      </c>
+      <c r="H88" s="4">
         <v>96</v>
       </c>
-      <c r="H88" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I88" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J88" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K88" s="4">
+        <v>250</v>
+      </c>
+      <c r="L88" s="4">
         <v>700</v>
       </c>
-      <c r="L88" s="4">
+      <c r="M88" s="4">
         <v>80</v>
       </c>
-      <c r="M88" s="4">
-        <v>1</v>
-      </c>
       <c r="N88" s="4">
         <v>1</v>
       </c>
       <c r="O88" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P88" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>228</v>
       </c>
@@ -4724,34 +4993,37 @@
         <v>8</v>
       </c>
       <c r="G89" s="4">
+        <v>8</v>
+      </c>
+      <c r="H89" s="4">
         <v>108</v>
       </c>
-      <c r="H89" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I89" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J89" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K89" s="4">
+        <v>250</v>
+      </c>
+      <c r="L89" s="4">
         <v>800</v>
       </c>
-      <c r="L89" s="4">
+      <c r="M89" s="4">
         <v>80</v>
       </c>
-      <c r="M89" s="4">
-        <v>1</v>
-      </c>
       <c r="N89" s="4">
         <v>1</v>
       </c>
       <c r="O89" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P89" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>229</v>
       </c>
@@ -4771,34 +5043,37 @@
         <v>9</v>
       </c>
       <c r="G90" s="4">
+        <v>9</v>
+      </c>
+      <c r="H90" s="4">
         <v>120</v>
       </c>
-      <c r="H90" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I90" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J90" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K90" s="4">
+        <v>250</v>
+      </c>
+      <c r="L90" s="4">
         <v>900</v>
       </c>
-      <c r="L90" s="4">
+      <c r="M90" s="4">
         <v>80</v>
       </c>
-      <c r="M90" s="4">
-        <v>1</v>
-      </c>
       <c r="N90" s="4">
         <v>1</v>
       </c>
       <c r="O90" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="P90" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>230</v>
       </c>
@@ -4818,30 +5093,33 @@
         <v>10</v>
       </c>
       <c r="G91" s="4">
+        <v>10</v>
+      </c>
+      <c r="H91" s="4">
         <v>132</v>
       </c>
-      <c r="H91" s="4">
-        <v>0.5</v>
-      </c>
       <c r="I91" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="J91" s="4">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K91" s="4">
+        <v>250</v>
+      </c>
+      <c r="L91" s="4">
         <v>1000</v>
       </c>
-      <c r="L91" s="4">
+      <c r="M91" s="4">
         <v>80</v>
       </c>
-      <c r="M91" s="4">
-        <v>1</v>
-      </c>
       <c r="N91" s="4">
         <v>1</v>
       </c>
       <c r="O91" s="4">
+        <v>1</v>
+      </c>
+      <c r="P91" s="4">
         <v>2</v>
       </c>
     </row>
